--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ifnb1-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ifnb1-Ifnar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ifnb1</t>
+  </si>
+  <si>
+    <t>Ifnar1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ifnb1</t>
-  </si>
-  <si>
-    <t>Ifnar1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03958166666666667</v>
+        <v>0.001763</v>
       </c>
       <c r="H2">
-        <v>0.118745</v>
+        <v>0.005289</v>
       </c>
       <c r="I2">
-        <v>0.9340879770932318</v>
+        <v>0.6312209094163982</v>
       </c>
       <c r="J2">
-        <v>0.9340879770932318</v>
+        <v>0.6312209094163981</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.577204</v>
+        <v>12.944643</v>
       </c>
       <c r="N2">
-        <v>73.731612</v>
+        <v>38.833929</v>
       </c>
       <c r="O2">
-        <v>0.5324151489760768</v>
+        <v>0.3748900893017936</v>
       </c>
       <c r="P2">
-        <v>0.5324151489760768</v>
+        <v>0.3748900893017936</v>
       </c>
       <c r="Q2">
-        <v>0.9728066963266666</v>
+        <v>0.022821405609</v>
       </c>
       <c r="R2">
-        <v>8.755260266940001</v>
+        <v>0.205392650481</v>
       </c>
       <c r="S2">
-        <v>0.4973225894808552</v>
+        <v>0.2366384631002729</v>
       </c>
       <c r="T2">
-        <v>0.4973225894808552</v>
+        <v>0.2366384631002729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03958166666666667</v>
+        <v>0.001763</v>
       </c>
       <c r="H3">
-        <v>0.118745</v>
+        <v>0.005289</v>
       </c>
       <c r="I3">
-        <v>0.9340879770932318</v>
+        <v>0.6312209094163982</v>
       </c>
       <c r="J3">
-        <v>0.9340879770932318</v>
+        <v>0.6312209094163981</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>45.100356</v>
       </c>
       <c r="O3">
-        <v>0.3256691683156758</v>
+        <v>0.4353841324781401</v>
       </c>
       <c r="P3">
-        <v>0.3256691683156758</v>
+        <v>0.4353841324781401</v>
       </c>
       <c r="Q3">
-        <v>0.5950490859133334</v>
+        <v>0.026503975876</v>
       </c>
       <c r="R3">
-        <v>5.355441773220001</v>
+        <v>0.238535782884</v>
       </c>
       <c r="S3">
-        <v>0.3042036546336248</v>
+        <v>0.2748235680483212</v>
       </c>
       <c r="T3">
-        <v>0.3042036546336249</v>
+        <v>0.2748235680483211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03958166666666667</v>
+        <v>0.001763</v>
       </c>
       <c r="H4">
-        <v>0.118745</v>
+        <v>0.005289</v>
       </c>
       <c r="I4">
-        <v>0.9340879770932318</v>
+        <v>0.6312209094163982</v>
       </c>
       <c r="J4">
-        <v>0.9340879770932318</v>
+        <v>0.6312209094163981</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>19.65322</v>
       </c>
       <c r="O4">
-        <v>0.1419156827082475</v>
+        <v>0.1897257782200662</v>
       </c>
       <c r="P4">
-        <v>0.1419156827082475</v>
+        <v>0.1897257782200662</v>
       </c>
       <c r="Q4">
-        <v>0.2593024009888889</v>
+        <v>0.01154954228666667</v>
       </c>
       <c r="R4">
-        <v>2.3337216089</v>
+        <v>0.10394588058</v>
       </c>
       <c r="S4">
-        <v>0.1325617329787518</v>
+        <v>0.1197588782678041</v>
       </c>
       <c r="T4">
-        <v>0.1325617329787518</v>
+        <v>0.119758878267804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.001763</v>
+        <v>0.00103</v>
       </c>
       <c r="H5">
-        <v>0.005289</v>
+        <v>0.00309</v>
       </c>
       <c r="I5">
-        <v>0.04160504704068468</v>
+        <v>0.3687790905836018</v>
       </c>
       <c r="J5">
-        <v>0.04160504704068468</v>
+        <v>0.3687790905836018</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.577204</v>
+        <v>12.944643</v>
       </c>
       <c r="N5">
-        <v>73.731612</v>
+        <v>38.833929</v>
       </c>
       <c r="O5">
-        <v>0.5324151489760768</v>
+        <v>0.3748900893017936</v>
       </c>
       <c r="P5">
-        <v>0.5324151489760768</v>
+        <v>0.3748900893017936</v>
       </c>
       <c r="Q5">
-        <v>0.043329610652</v>
+        <v>0.01333298229</v>
       </c>
       <c r="R5">
-        <v>0.389966495868</v>
+        <v>0.11999684061</v>
       </c>
       <c r="S5">
-        <v>0.02215115731832282</v>
+        <v>0.1382516262015207</v>
       </c>
       <c r="T5">
-        <v>0.02215115731832282</v>
+        <v>0.1382516262015207</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.001763</v>
+        <v>0.00103</v>
       </c>
       <c r="H6">
-        <v>0.005289</v>
+        <v>0.00309</v>
       </c>
       <c r="I6">
-        <v>0.04160504704068468</v>
+        <v>0.3687790905836018</v>
       </c>
       <c r="J6">
-        <v>0.04160504704068468</v>
+        <v>0.3687790905836018</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>45.100356</v>
       </c>
       <c r="O6">
-        <v>0.3256691683156758</v>
+        <v>0.4353841324781401</v>
       </c>
       <c r="P6">
-        <v>0.3256691683156758</v>
+        <v>0.4353841324781401</v>
       </c>
       <c r="Q6">
-        <v>0.026503975876</v>
+        <v>0.01548445556</v>
       </c>
       <c r="R6">
-        <v>0.238535782884</v>
+        <v>0.13936010004</v>
       </c>
       <c r="S6">
-        <v>0.01354948106747435</v>
+        <v>0.1605605644298189</v>
       </c>
       <c r="T6">
-        <v>0.01354948106747435</v>
+        <v>0.1605605644298189</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.001763</v>
+        <v>0.00103</v>
       </c>
       <c r="H7">
-        <v>0.005289</v>
+        <v>0.00309</v>
       </c>
       <c r="I7">
-        <v>0.04160504704068468</v>
+        <v>0.3687790905836018</v>
       </c>
       <c r="J7">
-        <v>0.04160504704068468</v>
+        <v>0.3687790905836018</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>19.65322</v>
       </c>
       <c r="O7">
-        <v>0.1419156827082475</v>
+        <v>0.1897257782200662</v>
       </c>
       <c r="P7">
-        <v>0.1419156827082475</v>
+        <v>0.1897257782200662</v>
       </c>
       <c r="Q7">
-        <v>0.01154954228666667</v>
+        <v>0.006747605533333333</v>
       </c>
       <c r="R7">
-        <v>0.10394588058</v>
+        <v>0.0607284498</v>
       </c>
       <c r="S7">
-        <v>0.005904408654887518</v>
+        <v>0.06996689995226214</v>
       </c>
       <c r="T7">
-        <v>0.005904408654887518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.00103</v>
-      </c>
-      <c r="H8">
-        <v>0.00309</v>
-      </c>
-      <c r="I8">
-        <v>0.02430697586608351</v>
-      </c>
-      <c r="J8">
-        <v>0.02430697586608351</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>24.577204</v>
-      </c>
-      <c r="N8">
-        <v>73.731612</v>
-      </c>
-      <c r="O8">
-        <v>0.5324151489760768</v>
-      </c>
-      <c r="P8">
-        <v>0.5324151489760768</v>
-      </c>
-      <c r="Q8">
-        <v>0.02531452012</v>
-      </c>
-      <c r="R8">
-        <v>0.22783068108</v>
-      </c>
-      <c r="S8">
-        <v>0.01294140217689875</v>
-      </c>
-      <c r="T8">
-        <v>0.01294140217689875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.00103</v>
-      </c>
-      <c r="H9">
-        <v>0.00309</v>
-      </c>
-      <c r="I9">
-        <v>0.02430697586608351</v>
-      </c>
-      <c r="J9">
-        <v>0.02430697586608351</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>15.033452</v>
-      </c>
-      <c r="N9">
-        <v>45.100356</v>
-      </c>
-      <c r="O9">
-        <v>0.3256691683156758</v>
-      </c>
-      <c r="P9">
-        <v>0.3256691683156758</v>
-      </c>
-      <c r="Q9">
-        <v>0.01548445556</v>
-      </c>
-      <c r="R9">
-        <v>0.13936010004</v>
-      </c>
-      <c r="S9">
-        <v>0.007916032614576619</v>
-      </c>
-      <c r="T9">
-        <v>0.007916032614576619</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.00103</v>
-      </c>
-      <c r="H10">
-        <v>0.00309</v>
-      </c>
-      <c r="I10">
-        <v>0.02430697586608351</v>
-      </c>
-      <c r="J10">
-        <v>0.02430697586608351</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>6.551073333333334</v>
-      </c>
-      <c r="N10">
-        <v>19.65322</v>
-      </c>
-      <c r="O10">
-        <v>0.1419156827082475</v>
-      </c>
-      <c r="P10">
-        <v>0.1419156827082475</v>
-      </c>
-      <c r="Q10">
-        <v>0.006747605533333333</v>
-      </c>
-      <c r="R10">
-        <v>0.0607284498</v>
-      </c>
-      <c r="S10">
-        <v>0.003449541074608136</v>
-      </c>
-      <c r="T10">
-        <v>0.003449541074608136</v>
+        <v>0.06996689995226214</v>
       </c>
     </row>
   </sheetData>
